--- a/data/pca/factorExposure/factorExposure_2017-01-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.004808616688455867</v>
+        <v>0.01071149068851146</v>
       </c>
       <c r="C2">
-        <v>0.007988154275917071</v>
+        <v>-0.04026939278706217</v>
       </c>
       <c r="D2">
-        <v>-0.04105494044780154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03167277402185534</v>
+      </c>
+      <c r="E2">
+        <v>0.05273766650079859</v>
+      </c>
+      <c r="F2">
+        <v>-0.005612562853185841</v>
+      </c>
+      <c r="G2">
+        <v>-0.1123960352867954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0486703992835764</v>
+        <v>0.03816504664159998</v>
       </c>
       <c r="C3">
-        <v>-0.04763635955467194</v>
+        <v>-0.09924312329574275</v>
       </c>
       <c r="D3">
-        <v>-0.1048989737753479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01770252402003283</v>
+      </c>
+      <c r="E3">
+        <v>0.09675792310196105</v>
+      </c>
+      <c r="F3">
+        <v>-0.01942504325635739</v>
+      </c>
+      <c r="G3">
+        <v>-0.1267451496405468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04618965506504585</v>
+        <v>0.05416844503585846</v>
       </c>
       <c r="C4">
-        <v>-0.01435524388815147</v>
+        <v>-0.06664081770354099</v>
       </c>
       <c r="D4">
-        <v>-0.06465493731987047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.025783587340579</v>
+      </c>
+      <c r="E4">
+        <v>0.04373504418965737</v>
+      </c>
+      <c r="F4">
+        <v>-0.00285388666589766</v>
+      </c>
+      <c r="G4">
+        <v>-0.09913365002523741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01649961237123341</v>
+        <v>0.03354905980364636</v>
       </c>
       <c r="C6">
-        <v>-0.01235706322856386</v>
+        <v>-0.05097284573348512</v>
       </c>
       <c r="D6">
-        <v>-0.05634133801014284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01856552256350838</v>
+      </c>
+      <c r="E6">
+        <v>0.04864886844834905</v>
+      </c>
+      <c r="F6">
+        <v>-0.003631762649889565</v>
+      </c>
+      <c r="G6">
+        <v>-0.0861543706756842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006352317111931825</v>
+        <v>0.01999575264488761</v>
       </c>
       <c r="C7">
-        <v>-0.004336354234849706</v>
+        <v>-0.03770990825411209</v>
       </c>
       <c r="D7">
-        <v>-0.03596637581417735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01502225992852877</v>
+      </c>
+      <c r="E7">
+        <v>0.01995979731621877</v>
+      </c>
+      <c r="F7">
+        <v>0.00352375405487676</v>
+      </c>
+      <c r="G7">
+        <v>-0.1257649416200757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0008960707324746923</v>
+        <v>0.003713266235818456</v>
       </c>
       <c r="C8">
-        <v>0.0007890296852304337</v>
+        <v>-0.02236471555112348</v>
       </c>
       <c r="D8">
-        <v>-7.1393532225429e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004049615399985485</v>
+      </c>
+      <c r="E8">
+        <v>0.03324777899388464</v>
+      </c>
+      <c r="F8">
+        <v>-0.001737556998549345</v>
+      </c>
+      <c r="G8">
+        <v>-0.06743532141334765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01740093400137609</v>
+        <v>0.03250373498263361</v>
       </c>
       <c r="C9">
-        <v>-0.006962297093949287</v>
+        <v>-0.04773147850314453</v>
       </c>
       <c r="D9">
-        <v>-0.04143410507229164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0169078144022463</v>
+      </c>
+      <c r="E9">
+        <v>0.03042938275641257</v>
+      </c>
+      <c r="F9">
+        <v>0.0008278025427118758</v>
+      </c>
+      <c r="G9">
+        <v>-0.1028312660679549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1215079993832419</v>
+        <v>0.1002003106465652</v>
       </c>
       <c r="C10">
-        <v>0.043494563259535</v>
+        <v>0.1862920897232513</v>
       </c>
       <c r="D10">
-        <v>0.171844404324221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01535782530041916</v>
+      </c>
+      <c r="E10">
+        <v>0.02081580947616093</v>
+      </c>
+      <c r="F10">
+        <v>-0.02140299296147691</v>
+      </c>
+      <c r="G10">
+        <v>-0.05362566423830523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02212549240168035</v>
+        <v>0.03524401206298455</v>
       </c>
       <c r="C11">
-        <v>-0.02506351475525447</v>
+        <v>-0.05260373206500177</v>
       </c>
       <c r="D11">
-        <v>-0.04648028420190303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002686120102466662</v>
+      </c>
+      <c r="E11">
+        <v>0.02233760570072907</v>
+      </c>
+      <c r="F11">
+        <v>0.0147941540883223</v>
+      </c>
+      <c r="G11">
+        <v>-0.08384239731261495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02257231241528922</v>
+        <v>0.03759778539105223</v>
       </c>
       <c r="C12">
-        <v>-0.01760793075346242</v>
+        <v>-0.04748795035335001</v>
       </c>
       <c r="D12">
-        <v>-0.04210378050642473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006626790448936103</v>
+      </c>
+      <c r="E12">
+        <v>0.01150132970010486</v>
+      </c>
+      <c r="F12">
+        <v>0.002205485820799476</v>
+      </c>
+      <c r="G12">
+        <v>-0.0795708127757201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.004129049815438232</v>
+        <v>0.01196188761798685</v>
       </c>
       <c r="C13">
-        <v>0.007318340923130336</v>
+        <v>-0.0388973719766723</v>
       </c>
       <c r="D13">
-        <v>-0.03578874137889893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02841240545512504</v>
+      </c>
+      <c r="E13">
+        <v>0.05339089783870827</v>
+      </c>
+      <c r="F13">
+        <v>-0.01432730180274626</v>
+      </c>
+      <c r="G13">
+        <v>-0.1411562354895232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0003197743621201965</v>
+        <v>0.008984065451438011</v>
       </c>
       <c r="C14">
-        <v>-0.002016594765703571</v>
+        <v>-0.02728162653312533</v>
       </c>
       <c r="D14">
-        <v>-0.02286668488236035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01112089992920783</v>
+      </c>
+      <c r="E14">
+        <v>0.01547702608861951</v>
+      </c>
+      <c r="F14">
+        <v>-0.006355304692262536</v>
+      </c>
+      <c r="G14">
+        <v>-0.1151916618981114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0197970647967165</v>
+        <v>0.03376951450970526</v>
       </c>
       <c r="C16">
-        <v>-0.01851201369150816</v>
+        <v>-0.04526919051553556</v>
       </c>
       <c r="D16">
-        <v>-0.03315440818146184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002233233665941002</v>
+      </c>
+      <c r="E16">
+        <v>0.01815245194274592</v>
+      </c>
+      <c r="F16">
+        <v>-0.004426568720735498</v>
+      </c>
+      <c r="G16">
+        <v>-0.08766451651872591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01743054570374134</v>
+        <v>0.01883114023523648</v>
       </c>
       <c r="C19">
-        <v>-0.01173691728059133</v>
+        <v>-0.05066570000535582</v>
       </c>
       <c r="D19">
-        <v>-0.04992374589406635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0213563900606508</v>
+      </c>
+      <c r="E19">
+        <v>0.09066759234709189</v>
+      </c>
+      <c r="F19">
+        <v>-0.00725145757887875</v>
+      </c>
+      <c r="G19">
+        <v>-0.1375194410178504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.003589205641405944</v>
+        <v>0.01445560613694952</v>
       </c>
       <c r="C20">
-        <v>-0.004368828786891498</v>
+        <v>-0.04041685986540094</v>
       </c>
       <c r="D20">
-        <v>-0.03503624945204709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0152602480772833</v>
+      </c>
+      <c r="E20">
+        <v>0.04244150284868747</v>
+      </c>
+      <c r="F20">
+        <v>-0.02401243151513011</v>
+      </c>
+      <c r="G20">
+        <v>-0.1121819617768961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.002192808064116079</v>
+        <v>0.008154159183749661</v>
       </c>
       <c r="C21">
-        <v>0.001777094514096877</v>
+        <v>-0.03728630797022214</v>
       </c>
       <c r="D21">
-        <v>-0.03085116175843102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02066441373327641</v>
+      </c>
+      <c r="E21">
+        <v>0.05491176457306582</v>
+      </c>
+      <c r="F21">
+        <v>-0.01195977249573038</v>
+      </c>
+      <c r="G21">
+        <v>-0.1459010852086992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001084632395470842</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006598282216355195</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00232132506770507</v>
+      </c>
+      <c r="E22">
+        <v>0.01822029019803564</v>
+      </c>
+      <c r="F22">
+        <v>0.004744177832033518</v>
+      </c>
+      <c r="G22">
+        <v>-0.00332466571409945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001059725469311064</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006504258961032898</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002308293450532973</v>
+      </c>
+      <c r="E23">
+        <v>0.01815740437310396</v>
+      </c>
+      <c r="F23">
+        <v>0.004491936532532342</v>
+      </c>
+      <c r="G23">
+        <v>-0.00318762712827793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01397287970536169</v>
+        <v>0.02927586584076903</v>
       </c>
       <c r="C24">
-        <v>-0.0156535478482311</v>
+        <v>-0.04931970491694333</v>
       </c>
       <c r="D24">
-        <v>-0.04109563853862122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007376033039706477</v>
+      </c>
+      <c r="E24">
+        <v>0.01737290976746201</v>
+      </c>
+      <c r="F24">
+        <v>0.006119927891395892</v>
+      </c>
+      <c r="G24">
+        <v>-0.08775483081946212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03080633083360021</v>
+        <v>0.04241144679418989</v>
       </c>
       <c r="C25">
-        <v>-0.01868048164665172</v>
+        <v>-0.05717149926768606</v>
       </c>
       <c r="D25">
-        <v>-0.05234396656221788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0114336925229961</v>
+      </c>
+      <c r="E25">
+        <v>0.008868348060557155</v>
+      </c>
+      <c r="F25">
+        <v>0.005028123351659223</v>
+      </c>
+      <c r="G25">
+        <v>-0.09422550312491015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.003828185406576495</v>
+        <v>0.01514281936287173</v>
       </c>
       <c r="C26">
-        <v>0.01872287014661378</v>
+        <v>-0.01087604691636718</v>
       </c>
       <c r="D26">
-        <v>-0.01124255416614928</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02427786871825002</v>
+      </c>
+      <c r="E26">
+        <v>0.01175550857059512</v>
+      </c>
+      <c r="F26">
+        <v>-0.005775968673234176</v>
+      </c>
+      <c r="G26">
+        <v>-0.08520637934886137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1531581312825319</v>
+        <v>0.1313092155944931</v>
       </c>
       <c r="C28">
-        <v>0.06043546733806632</v>
+        <v>0.2427220028089289</v>
       </c>
       <c r="D28">
-        <v>0.1926724481872238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006645075836828814</v>
+      </c>
+      <c r="E28">
+        <v>0.002996785437673431</v>
+      </c>
+      <c r="F28">
+        <v>-0.02051594547380509</v>
+      </c>
+      <c r="G28">
+        <v>-0.04833011276916858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006342630759503609</v>
+        <v>0.008119228942271392</v>
       </c>
       <c r="C29">
-        <v>-0.002144805566090618</v>
+        <v>-0.02287215356532562</v>
       </c>
       <c r="D29">
-        <v>-0.01915847078574618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01000983853694493</v>
+      </c>
+      <c r="E29">
+        <v>0.008527994347195348</v>
+      </c>
+      <c r="F29">
+        <v>-0.01116036087961816</v>
+      </c>
+      <c r="G29">
+        <v>-0.1048581395585748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02506250823351723</v>
+        <v>0.03861883725435032</v>
       </c>
       <c r="C30">
-        <v>-0.01750586746582716</v>
+        <v>-0.06715727612364339</v>
       </c>
       <c r="D30">
-        <v>-0.08715223206719576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03045294089675609</v>
+      </c>
+      <c r="E30">
+        <v>0.07137224209671753</v>
+      </c>
+      <c r="F30">
+        <v>0.0200643419139612</v>
+      </c>
+      <c r="G30">
+        <v>-0.1253266078209477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.029366293566363</v>
+        <v>0.05269942146471512</v>
       </c>
       <c r="C31">
-        <v>-0.007839637037502796</v>
+        <v>-0.03868133319453736</v>
       </c>
       <c r="D31">
-        <v>-0.01482006029340372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003981764977434204</v>
+      </c>
+      <c r="E31">
+        <v>-0.001541017051801075</v>
+      </c>
+      <c r="F31">
+        <v>-0.03422537617224258</v>
+      </c>
+      <c r="G31">
+        <v>-0.09982609878998595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003897844173582006</v>
+        <v>0.00184377386782344</v>
       </c>
       <c r="C32">
-        <v>-0.0197176042569389</v>
+        <v>-0.0209044883085354</v>
       </c>
       <c r="D32">
-        <v>-0.02536981168912085</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001747140214585272</v>
+      </c>
+      <c r="E32">
+        <v>0.04718938118835752</v>
+      </c>
+      <c r="F32">
+        <v>0.02929159528385777</v>
+      </c>
+      <c r="G32">
+        <v>-0.07428170132930395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01651866051588034</v>
+        <v>0.02673980747524568</v>
       </c>
       <c r="C33">
-        <v>-0.01371982389781165</v>
+        <v>-0.04989881817592139</v>
       </c>
       <c r="D33">
-        <v>-0.05086138857956196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01734176985443289</v>
+      </c>
+      <c r="E33">
+        <v>0.0579649082758708</v>
+      </c>
+      <c r="F33">
+        <v>0.005985826569955049</v>
+      </c>
+      <c r="G33">
+        <v>-0.1586867064860596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03484913972163401</v>
+        <v>0.04131078159791012</v>
       </c>
       <c r="C34">
-        <v>-0.03500468932801357</v>
+        <v>-0.06005652689304945</v>
       </c>
       <c r="D34">
-        <v>-0.04660164365139131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004361681667276241</v>
+      </c>
+      <c r="E34">
+        <v>0.01413700831484066</v>
+      </c>
+      <c r="F34">
+        <v>0.01877237787759701</v>
+      </c>
+      <c r="G34">
+        <v>-0.08636415087087994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007795621420789385</v>
+        <v>0.01586046931741581</v>
       </c>
       <c r="C36">
-        <v>0.009619505627985652</v>
+        <v>-0.008129648809003553</v>
       </c>
       <c r="D36">
-        <v>-0.001478639653112455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01313645029366714</v>
+      </c>
+      <c r="E36">
+        <v>0.01464420952457123</v>
+      </c>
+      <c r="F36">
+        <v>-0.007285721532391301</v>
+      </c>
+      <c r="G36">
+        <v>-0.09726211900463957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0234039116616216</v>
+        <v>0.03159685131699097</v>
       </c>
       <c r="C38">
-        <v>-0.01989134004194185</v>
+        <v>-0.02852600005662597</v>
       </c>
       <c r="D38">
-        <v>-0.01390348704788317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007427869494029305</v>
+      </c>
+      <c r="E38">
+        <v>0.009095179525967568</v>
+      </c>
+      <c r="F38">
+        <v>-0.01576422856441723</v>
+      </c>
+      <c r="G38">
+        <v>-0.08811815453109391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01333759950836633</v>
+        <v>0.03496161926269652</v>
       </c>
       <c r="C39">
-        <v>-0.03051378046169164</v>
+        <v>-0.07793418397760946</v>
       </c>
       <c r="D39">
-        <v>-0.08364682595815037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01245912825732406</v>
+      </c>
+      <c r="E39">
+        <v>0.03349475445140512</v>
+      </c>
+      <c r="F39">
+        <v>0.01494917403004479</v>
+      </c>
+      <c r="G39">
+        <v>-0.0953632611691531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01546444748940543</v>
+        <v>0.01404173672395967</v>
       </c>
       <c r="C40">
-        <v>-0.002753995052111449</v>
+        <v>-0.03613805061524292</v>
       </c>
       <c r="D40">
-        <v>-0.02502914722475552</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01534893128206997</v>
+      </c>
+      <c r="E40">
+        <v>0.03540368872941919</v>
+      </c>
+      <c r="F40">
+        <v>-0.01610101998825899</v>
+      </c>
+      <c r="G40">
+        <v>-0.1209014356716217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01062673400805565</v>
+        <v>0.02002718212946264</v>
       </c>
       <c r="C41">
-        <v>0.004657118992890987</v>
+        <v>-0.001390803115343024</v>
       </c>
       <c r="D41">
-        <v>0.006846078912313532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005122285082981425</v>
+      </c>
+      <c r="E41">
+        <v>0.01129958459143301</v>
+      </c>
+      <c r="F41">
+        <v>-0.01449427035426111</v>
+      </c>
+      <c r="G41">
+        <v>-0.09097042178382636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00680338369517759</v>
+        <v>0.004754327065219954</v>
       </c>
       <c r="C42">
-        <v>0.05686947681266642</v>
+        <v>-0.02825000010089533</v>
       </c>
       <c r="D42">
-        <v>-0.08997752553138025</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08456007349075403</v>
+      </c>
+      <c r="E42">
+        <v>-0.008366055463670885</v>
+      </c>
+      <c r="F42">
+        <v>-0.03572428840205339</v>
+      </c>
+      <c r="G42">
+        <v>0.01778307068236365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02285220037865443</v>
+        <v>0.03508990057574454</v>
       </c>
       <c r="C43">
-        <v>-0.002047039288716077</v>
+        <v>-0.0170017452978626</v>
       </c>
       <c r="D43">
-        <v>-0.002710071994330494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006459833288648445</v>
+      </c>
+      <c r="E43">
+        <v>0.02693868825812442</v>
+      </c>
+      <c r="F43">
+        <v>-0.0110083140559564</v>
+      </c>
+      <c r="G43">
+        <v>-0.1195267633326112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.008334553343225115</v>
+        <v>0.01288470512083906</v>
       </c>
       <c r="C44">
-        <v>-0.02022949628989109</v>
+        <v>-0.05583920897261829</v>
       </c>
       <c r="D44">
-        <v>-0.04919332577174672</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007701862630767695</v>
+      </c>
+      <c r="E44">
+        <v>0.03173150919101399</v>
+      </c>
+      <c r="F44">
+        <v>-0.01826510292528031</v>
+      </c>
+      <c r="G44">
+        <v>-0.117099874204357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.002194107563658918</v>
+        <v>0.008318680822778765</v>
       </c>
       <c r="C46">
-        <v>0.009958732179263989</v>
+        <v>-0.0153741239557453</v>
       </c>
       <c r="D46">
-        <v>-0.004148979886640671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01297581453463138</v>
+      </c>
+      <c r="E46">
+        <v>0.001696516263229864</v>
+      </c>
+      <c r="F46">
+        <v>-0.01364337328178197</v>
+      </c>
+      <c r="G46">
+        <v>-0.1089684287828955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04954991312454113</v>
+        <v>0.07925001430589304</v>
       </c>
       <c r="C47">
-        <v>-0.03528732986723131</v>
+        <v>-0.07069716367864123</v>
       </c>
       <c r="D47">
-        <v>-0.0493817193017461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005034511785218367</v>
+      </c>
+      <c r="E47">
+        <v>-0.009014217051922783</v>
+      </c>
+      <c r="F47">
+        <v>-0.044724545833757</v>
+      </c>
+      <c r="G47">
+        <v>-0.08975266397106496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006277304646956412</v>
+        <v>0.01894410879536611</v>
       </c>
       <c r="C48">
-        <v>-0.0001529315123194372</v>
+        <v>-0.01254960497934744</v>
       </c>
       <c r="D48">
-        <v>0.0002171833975321401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002726774531142232</v>
+      </c>
+      <c r="E48">
+        <v>0.008202055035680701</v>
+      </c>
+      <c r="F48">
+        <v>-0.01888903530655284</v>
+      </c>
+      <c r="G48">
+        <v>-0.1043399531839303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05363770430313125</v>
+        <v>0.07405396672221561</v>
       </c>
       <c r="C50">
-        <v>-0.03176308224762361</v>
+        <v>-0.07173415412557743</v>
       </c>
       <c r="D50">
-        <v>-0.04244619044708862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002140662770474657</v>
+      </c>
+      <c r="E50">
+        <v>-0.009299151877949696</v>
+      </c>
+      <c r="F50">
+        <v>-0.0466641920604675</v>
+      </c>
+      <c r="G50">
+        <v>-0.1000376406701627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006390456986988751</v>
+        <v>0.01153623012010615</v>
       </c>
       <c r="C51">
-        <v>-0.007764882937764093</v>
+        <v>-0.03578108750714155</v>
       </c>
       <c r="D51">
-        <v>-0.0308574469579905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01160642704672377</v>
+      </c>
+      <c r="E51">
+        <v>0.03464844357832349</v>
+      </c>
+      <c r="F51">
+        <v>0.01084401741293322</v>
+      </c>
+      <c r="G51">
+        <v>-0.1203696117023804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07168418483263009</v>
+        <v>0.08145847153395845</v>
       </c>
       <c r="C53">
-        <v>-0.04730463282775362</v>
+        <v>-0.08439911233071458</v>
       </c>
       <c r="D53">
-        <v>-0.06898682590834831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004124068765279348</v>
+      </c>
+      <c r="E53">
+        <v>-0.03289743788760823</v>
+      </c>
+      <c r="F53">
+        <v>-0.0517554884278831</v>
+      </c>
+      <c r="G53">
+        <v>-0.0903400709243742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0222846092420295</v>
+        <v>0.03199518454414122</v>
       </c>
       <c r="C54">
-        <v>-0.004250396945763697</v>
+        <v>-0.0168882376369093</v>
       </c>
       <c r="D54">
-        <v>0.007194391901450465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0005665460579411923</v>
+      </c>
+      <c r="E54">
+        <v>0.02070732002074052</v>
+      </c>
+      <c r="F54">
+        <v>-0.0103740641426551</v>
+      </c>
+      <c r="G54">
+        <v>-0.1084267257957546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.05174570923565425</v>
+        <v>0.07375991882491163</v>
       </c>
       <c r="C55">
-        <v>-0.0371929321135941</v>
+        <v>-0.06784478491821506</v>
       </c>
       <c r="D55">
-        <v>-0.05334792950697208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005581087753804107</v>
+      </c>
+      <c r="E55">
+        <v>-0.03040185271946981</v>
+      </c>
+      <c r="F55">
+        <v>-0.04933819172116735</v>
+      </c>
+      <c r="G55">
+        <v>-0.0697691518073863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1116012873156667</v>
+        <v>0.1356726509624421</v>
       </c>
       <c r="C56">
-        <v>-0.07303821769272621</v>
+        <v>-0.1074653975971762</v>
       </c>
       <c r="D56">
-        <v>-0.09374757232004978</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01328258573231771</v>
+      </c>
+      <c r="E56">
+        <v>-0.04008579190999403</v>
+      </c>
+      <c r="F56">
+        <v>-0.06235794494848974</v>
+      </c>
+      <c r="G56">
+        <v>-0.05027723814555787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01084701678225649</v>
+        <v>0.004026948606605235</v>
       </c>
       <c r="C57">
-        <v>0.01312064363534394</v>
+        <v>-0.004675752723241709</v>
       </c>
       <c r="D57">
-        <v>-0.0199623045339687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02278939863328129</v>
+      </c>
+      <c r="E57">
+        <v>0.02456768457407574</v>
+      </c>
+      <c r="F57">
+        <v>0.0004531770749883249</v>
+      </c>
+      <c r="G57">
+        <v>-0.01588910084665766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03667785876255844</v>
+        <v>0.04135717378509855</v>
       </c>
       <c r="C58">
-        <v>-0.04847807440587823</v>
+        <v>-0.0410652975350572</v>
       </c>
       <c r="D58">
-        <v>-0.08804623959995962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03112001567849342</v>
+      </c>
+      <c r="E58">
+        <v>0.7952430376304185</v>
+      </c>
+      <c r="F58">
+        <v>-0.5097404820413782</v>
+      </c>
+      <c r="G58">
+        <v>0.2560652612149613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1932438475608126</v>
+        <v>0.1604254820142575</v>
       </c>
       <c r="C59">
-        <v>0.04569241774830518</v>
+        <v>0.2060124342206495</v>
       </c>
       <c r="D59">
-        <v>0.1914148943686626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01067941969112351</v>
+      </c>
+      <c r="E59">
+        <v>0.02403731745142077</v>
+      </c>
+      <c r="F59">
+        <v>-0.00509001995616869</v>
+      </c>
+      <c r="G59">
+        <v>-0.03542216337927952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3060297390185195</v>
+        <v>0.2874434150700547</v>
       </c>
       <c r="C60">
-        <v>-0.1039925820429775</v>
+        <v>-0.1152174097552024</v>
       </c>
       <c r="D60">
-        <v>-0.1356191360023852</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01506649114115224</v>
+      </c>
+      <c r="E60">
+        <v>0.09289433482980038</v>
+      </c>
+      <c r="F60">
+        <v>0.3151407560587786</v>
+      </c>
+      <c r="G60">
+        <v>0.1765169670667574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01835206357784406</v>
+        <v>0.03888718810377205</v>
       </c>
       <c r="C61">
-        <v>-0.02851642881926393</v>
+        <v>-0.0650051964146766</v>
       </c>
       <c r="D61">
-        <v>-0.06223798706786953</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006403655909338202</v>
+      </c>
+      <c r="E61">
+        <v>0.0312295567730378</v>
+      </c>
+      <c r="F61">
+        <v>0.009687664888152396</v>
+      </c>
+      <c r="G61">
+        <v>-0.0943604329662765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007000334194472505</v>
+        <v>0.01456020805029419</v>
       </c>
       <c r="C63">
-        <v>-0.006398283949426285</v>
+        <v>-0.02944354010736596</v>
       </c>
       <c r="D63">
-        <v>-0.02915261489353711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008832177241425449</v>
+      </c>
+      <c r="E63">
+        <v>0.007018815981725775</v>
+      </c>
+      <c r="F63">
+        <v>-0.01409383492266436</v>
+      </c>
+      <c r="G63">
+        <v>-0.09358385814104177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03878868347958415</v>
+        <v>0.04962562130236257</v>
       </c>
       <c r="C64">
-        <v>-0.01737128456470795</v>
+        <v>-0.04654653711893503</v>
       </c>
       <c r="D64">
-        <v>-0.03348956057682137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005951963551112093</v>
+      </c>
+      <c r="E64">
+        <v>0.006063924611069878</v>
+      </c>
+      <c r="F64">
+        <v>0.007637446268495539</v>
+      </c>
+      <c r="G64">
+        <v>-0.09704629982973104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.06983353511089964</v>
+        <v>0.0724764334213993</v>
       </c>
       <c r="C65">
-        <v>-0.03511765235043813</v>
+        <v>-0.06022325937003017</v>
       </c>
       <c r="D65">
-        <v>-0.0854449489307543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01789326371781878</v>
+      </c>
+      <c r="E65">
+        <v>0.05103030029231619</v>
+      </c>
+      <c r="F65">
+        <v>0.01123980779106718</v>
+      </c>
+      <c r="G65">
+        <v>-0.0420509142293673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.02724742218148313</v>
+        <v>0.04729616465297049</v>
       </c>
       <c r="C66">
-        <v>-0.05264406550932311</v>
+        <v>-0.106077786945989</v>
       </c>
       <c r="D66">
-        <v>-0.1251740878849225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01308859409638117</v>
+      </c>
+      <c r="E66">
+        <v>0.05373769229796043</v>
+      </c>
+      <c r="F66">
+        <v>0.02453629989492388</v>
+      </c>
+      <c r="G66">
+        <v>-0.1007848939332093</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04917876436760796</v>
+        <v>0.05539141863322237</v>
       </c>
       <c r="C67">
-        <v>-0.02633480438158263</v>
+        <v>-0.03406938261514845</v>
       </c>
       <c r="D67">
-        <v>-0.02477236477791753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006166126551359636</v>
+      </c>
+      <c r="E67">
+        <v>-0.002644075534297977</v>
+      </c>
+      <c r="F67">
+        <v>-0.01100246917299194</v>
+      </c>
+      <c r="G67">
+        <v>-0.07441827346353999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1838946124783871</v>
+        <v>0.1602200892789267</v>
       </c>
       <c r="C68">
-        <v>0.08301223369495905</v>
+        <v>0.2698276023583053</v>
       </c>
       <c r="D68">
-        <v>0.2228300217024657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005169528723951923</v>
+      </c>
+      <c r="E68">
+        <v>-0.001608890711943001</v>
+      </c>
+      <c r="F68">
+        <v>-0.04467542283103237</v>
+      </c>
+      <c r="G68">
+        <v>-0.02071748367034801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05556326878785092</v>
+        <v>0.08190038914239192</v>
       </c>
       <c r="C69">
-        <v>-0.03844817695489548</v>
+        <v>-0.07342168912661208</v>
       </c>
       <c r="D69">
-        <v>-0.04440686035828167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009084761161814645</v>
+      </c>
+      <c r="E69">
+        <v>-0.02181027711639698</v>
+      </c>
+      <c r="F69">
+        <v>-0.02539457778640677</v>
+      </c>
+      <c r="G69">
+        <v>-0.1004026748022432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1687040760012358</v>
+        <v>0.1465660369703745</v>
       </c>
       <c r="C71">
-        <v>0.05842754774663148</v>
+        <v>0.2297536938430136</v>
       </c>
       <c r="D71">
-        <v>0.1876284250139766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002831342374449907</v>
+      </c>
+      <c r="E71">
+        <v>0.03020673262785792</v>
+      </c>
+      <c r="F71">
+        <v>-0.02744880579523427</v>
+      </c>
+      <c r="G71">
+        <v>-0.06582147033191288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06373059341912886</v>
+        <v>0.08637243221406417</v>
       </c>
       <c r="C72">
-        <v>-0.05018507279082304</v>
+        <v>-0.0692472008952177</v>
       </c>
       <c r="D72">
-        <v>-0.06367499019398944</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007838713241398476</v>
+      </c>
+      <c r="E72">
+        <v>-0.0004892072412831863</v>
+      </c>
+      <c r="F72">
+        <v>0.03332844966702937</v>
+      </c>
+      <c r="G72">
+        <v>-0.08299754629816632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4194380379229192</v>
+        <v>0.3699975825759592</v>
       </c>
       <c r="C73">
-        <v>-0.1518422869636706</v>
+        <v>-0.1245594231633895</v>
       </c>
       <c r="D73">
-        <v>-0.2086554455884924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02796420545468898</v>
+      </c>
+      <c r="E73">
+        <v>0.2291659763018402</v>
+      </c>
+      <c r="F73">
+        <v>0.5390641900955716</v>
+      </c>
+      <c r="G73">
+        <v>0.3243934588127556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09063028980193856</v>
+        <v>0.104809189891586</v>
       </c>
       <c r="C74">
-        <v>-0.07353702414276983</v>
+        <v>-0.1095089900642047</v>
       </c>
       <c r="D74">
-        <v>-0.106542253747119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009606991541671387</v>
+      </c>
+      <c r="E74">
+        <v>-0.01409044757815462</v>
+      </c>
+      <c r="F74">
+        <v>-0.05630981457571884</v>
+      </c>
+      <c r="G74">
+        <v>-0.0746972197280914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.206090047857311</v>
+        <v>0.2463104227169209</v>
       </c>
       <c r="C75">
-        <v>-0.123060579564625</v>
+        <v>-0.1527891655376622</v>
       </c>
       <c r="D75">
-        <v>-0.1453046270429649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03262063030931733</v>
+      </c>
+      <c r="E75">
+        <v>-0.1018215360625526</v>
+      </c>
+      <c r="F75">
+        <v>-0.1398665936644678</v>
+      </c>
+      <c r="G75">
+        <v>-0.00358203459704332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.10437657185185</v>
+        <v>0.1147279245947757</v>
       </c>
       <c r="C76">
-        <v>-0.08352888055700244</v>
+        <v>-0.1107079397305948</v>
       </c>
       <c r="D76">
-        <v>-0.1057925160945561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01831738754423375</v>
+      </c>
+      <c r="E76">
+        <v>-0.04334201969869574</v>
+      </c>
+      <c r="F76">
+        <v>-0.08445338777247072</v>
+      </c>
+      <c r="G76">
+        <v>-0.06200197914988712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04153043044303332</v>
+        <v>0.07045027561404413</v>
       </c>
       <c r="C77">
-        <v>-0.02813921450636157</v>
+        <v>-0.05689661034716582</v>
       </c>
       <c r="D77">
-        <v>-0.06438566540061551</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01090124061737674</v>
+      </c>
+      <c r="E77">
+        <v>0.05570096108945861</v>
+      </c>
+      <c r="F77">
+        <v>-0.00282095798131016</v>
+      </c>
+      <c r="G77">
+        <v>-0.07252641725867089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.03207182644595467</v>
+        <v>0.03993653282545082</v>
       </c>
       <c r="C78">
-        <v>-0.02682442683158235</v>
+        <v>-0.05422727095974926</v>
       </c>
       <c r="D78">
-        <v>-0.05457496226374822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007754626900273005</v>
+      </c>
+      <c r="E78">
+        <v>0.04309343483552878</v>
+      </c>
+      <c r="F78">
+        <v>0.0282107426626551</v>
+      </c>
+      <c r="G78">
+        <v>-0.09758155076809844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001983838754474928</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0006926781568734781</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0007765070214459675</v>
+      </c>
+      <c r="E79">
+        <v>0.007477170529338032</v>
+      </c>
+      <c r="F79">
+        <v>-1.814320068258448e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.006643579841374263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0393994518178697</v>
+        <v>0.04121292651894413</v>
       </c>
       <c r="C80">
-        <v>-0.02568397089404261</v>
+        <v>-0.05294280926096705</v>
       </c>
       <c r="D80">
-        <v>-0.06756740264609919</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01411632039949616</v>
+      </c>
+      <c r="E80">
+        <v>0.03299803345646066</v>
+      </c>
+      <c r="F80">
+        <v>-0.0006221524426654394</v>
+      </c>
+      <c r="G80">
+        <v>-0.05444661882183445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1105749440991476</v>
+        <v>0.1378834785086572</v>
       </c>
       <c r="C81">
-        <v>-0.0644456286824487</v>
+        <v>-0.09595384239172679</v>
       </c>
       <c r="D81">
-        <v>-0.07458275560956305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01591062771324498</v>
+      </c>
+      <c r="E81">
+        <v>-0.06189997044230856</v>
+      </c>
+      <c r="F81">
+        <v>-0.1103323938464979</v>
+      </c>
+      <c r="G81">
+        <v>-0.02949526947583728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02951133584125645</v>
+        <v>0.1486186293415087</v>
       </c>
       <c r="C82">
-        <v>-0.01635547694368772</v>
+        <v>-0.09162244848512489</v>
       </c>
       <c r="D82">
-        <v>-0.02175258279455859</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0141861016930127</v>
+      </c>
+      <c r="E82">
+        <v>-0.1357149687686846</v>
+      </c>
+      <c r="F82">
+        <v>-0.04229122037915681</v>
+      </c>
+      <c r="G82">
+        <v>-0.05271264671553878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01920461000620908</v>
+        <v>0.03364343399117231</v>
       </c>
       <c r="C83">
-        <v>-0.007811460246240389</v>
+        <v>-0.03303524960759351</v>
       </c>
       <c r="D83">
-        <v>-0.01969767060824246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007177415055800585</v>
+      </c>
+      <c r="E83">
+        <v>0.0365301807320877</v>
+      </c>
+      <c r="F83">
+        <v>0.03028762156455833</v>
+      </c>
+      <c r="G83">
+        <v>-0.05429582760881185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1999184078809327</v>
+        <v>0.2072780044004736</v>
       </c>
       <c r="C85">
-        <v>-0.1164914583564858</v>
+        <v>-0.1456829955429663</v>
       </c>
       <c r="D85">
-        <v>-0.161416016825534</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01797245648502785</v>
+      </c>
+      <c r="E85">
+        <v>-0.1132036543500819</v>
+      </c>
+      <c r="F85">
+        <v>-0.07489975852811176</v>
+      </c>
+      <c r="G85">
+        <v>0.03308327140951633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006709231016787282</v>
+        <v>0.01234917625446198</v>
       </c>
       <c r="C86">
-        <v>-0.006563000130997279</v>
+        <v>-0.02753596323180095</v>
       </c>
       <c r="D86">
-        <v>-0.02637884015627066</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01315227575466684</v>
+      </c>
+      <c r="E86">
+        <v>0.06762633259633898</v>
+      </c>
+      <c r="F86">
+        <v>0.02272272630096006</v>
+      </c>
+      <c r="G86">
+        <v>-0.1795637294904732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.001027232607107465</v>
+        <v>0.02123217872985895</v>
       </c>
       <c r="C87">
-        <v>-0.005554493459370453</v>
+        <v>-0.0178721768461616</v>
       </c>
       <c r="D87">
-        <v>-0.0315298709102368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0132396563750524</v>
+      </c>
+      <c r="E87">
+        <v>0.09894691053167465</v>
+      </c>
+      <c r="F87">
+        <v>-0.020014160843496</v>
+      </c>
+      <c r="G87">
+        <v>-0.1144243023007252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06705177947834735</v>
+        <v>0.09036406131070934</v>
       </c>
       <c r="C88">
-        <v>-0.01160473880570037</v>
+        <v>-0.07042844184081283</v>
       </c>
       <c r="D88">
-        <v>-0.0542063759651481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02240823032800739</v>
+      </c>
+      <c r="E88">
+        <v>-0.001931846468754349</v>
+      </c>
+      <c r="F88">
+        <v>-0.01869138536132616</v>
+      </c>
+      <c r="G88">
+        <v>-0.1032453486029744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.279741109615371</v>
+        <v>0.2347863008929331</v>
       </c>
       <c r="C89">
-        <v>0.1071017169462065</v>
+        <v>0.3645790562653933</v>
       </c>
       <c r="D89">
-        <v>0.3175287593468554</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0007241814560055942</v>
+      </c>
+      <c r="E89">
+        <v>-0.02282210300117133</v>
+      </c>
+      <c r="F89">
+        <v>-0.0187316223546296</v>
+      </c>
+      <c r="G89">
+        <v>-0.07779083429405469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2453540990238321</v>
+        <v>0.2137218195976709</v>
       </c>
       <c r="C90">
-        <v>0.09366843133590429</v>
+        <v>0.3140208301473547</v>
       </c>
       <c r="D90">
-        <v>0.287745741370203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004438153675804366</v>
+      </c>
+      <c r="E90">
+        <v>-0.00926792832363372</v>
+      </c>
+      <c r="F90">
+        <v>-0.05038833443145554</v>
+      </c>
+      <c r="G90">
+        <v>-0.04950465088673384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1601245169495966</v>
+        <v>0.1843148574507693</v>
       </c>
       <c r="C91">
-        <v>-0.0894486937094966</v>
+        <v>-0.1373593356044308</v>
       </c>
       <c r="D91">
-        <v>-0.09400944883338493</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02336089582903151</v>
+      </c>
+      <c r="E91">
+        <v>-0.0828425548833725</v>
+      </c>
+      <c r="F91">
+        <v>-0.1093362638032015</v>
+      </c>
+      <c r="G91">
+        <v>-0.03934266361078499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2259211214389491</v>
+        <v>0.2005915410013138</v>
       </c>
       <c r="C92">
-        <v>0.03382279596054393</v>
+        <v>0.255881145866882</v>
       </c>
       <c r="D92">
-        <v>0.2328292624781436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03815175042015033</v>
+      </c>
+      <c r="E92">
+        <v>0.02094096867164673</v>
+      </c>
+      <c r="F92">
+        <v>-0.05673519261060334</v>
+      </c>
+      <c r="G92">
+        <v>-0.08911212754251036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2603344778806607</v>
+        <v>0.2363051947939166</v>
       </c>
       <c r="C93">
-        <v>0.07568268097251662</v>
+        <v>0.3075175374129528</v>
       </c>
       <c r="D93">
-        <v>0.2685727455897075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01044987926519976</v>
+      </c>
+      <c r="E93">
+        <v>0.005301558231046856</v>
+      </c>
+      <c r="F93">
+        <v>-0.03801817349709253</v>
+      </c>
+      <c r="G93">
+        <v>-0.06093488436177722</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2170573191990312</v>
+        <v>0.3210420282948686</v>
       </c>
       <c r="C94">
-        <v>-0.1016843774125405</v>
+        <v>-0.1984605714496785</v>
       </c>
       <c r="D94">
-        <v>-0.1452626598702334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02621939621225776</v>
+      </c>
+      <c r="E94">
+        <v>-0.3544544863956625</v>
+      </c>
+      <c r="F94">
+        <v>-0.4258189301410063</v>
+      </c>
+      <c r="G94">
+        <v>0.3878852724872707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05750810581949083</v>
+        <v>0.09219101769112614</v>
       </c>
       <c r="C95">
-        <v>-0.07542458538221322</v>
+        <v>-0.08077517966057346</v>
       </c>
       <c r="D95">
-        <v>-0.1265248784757468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009037169795154681</v>
+      </c>
+      <c r="E95">
+        <v>0.1107039548338833</v>
+      </c>
+      <c r="F95">
+        <v>0.1575501461671746</v>
+      </c>
+      <c r="G95">
+        <v>-0.06201556290396706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.203740817044487</v>
+        <v>0.1904952709054593</v>
       </c>
       <c r="C98">
-        <v>-0.08635632244081114</v>
+        <v>-0.05043720223043591</v>
       </c>
       <c r="D98">
-        <v>-0.06897792660059787</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01022006069672795</v>
+      </c>
+      <c r="E98">
+        <v>0.12800009327819</v>
+      </c>
+      <c r="F98">
+        <v>0.2072537494097154</v>
+      </c>
+      <c r="G98">
+        <v>0.04861556369362776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0060418862515279</v>
+        <v>0.007961726486566399</v>
       </c>
       <c r="C101">
-        <v>-0.002334864936274417</v>
+        <v>-0.02274340336362309</v>
       </c>
       <c r="D101">
-        <v>-0.0193474366540239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009829530444251885</v>
+      </c>
+      <c r="E101">
+        <v>0.008082363473978758</v>
+      </c>
+      <c r="F101">
+        <v>-0.0120459621606478</v>
+      </c>
+      <c r="G101">
+        <v>-0.1044981538881748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1011961136635835</v>
+        <v>0.1169850360711407</v>
       </c>
       <c r="C102">
-        <v>-0.04940700197829111</v>
+        <v>-0.0846657364660843</v>
       </c>
       <c r="D102">
-        <v>-0.08070001425909511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0002112719827429633</v>
+      </c>
+      <c r="E102">
+        <v>-0.03937815921513718</v>
+      </c>
+      <c r="F102">
+        <v>-0.01947267831730918</v>
+      </c>
+      <c r="G102">
+        <v>-0.02513821224199889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.161338773441119</v>
+        <v>0.02122619966977205</v>
       </c>
       <c r="C104">
-        <v>0.8960737524311418</v>
+        <v>0.02852263736786449</v>
       </c>
       <c r="D104">
-        <v>-0.3918679526475585</v>
+        <v>-0.98692720406626</v>
+      </c>
+      <c r="E104">
+        <v>-0.07457471348828353</v>
+      </c>
+      <c r="F104">
+        <v>-0.02510875815655191</v>
+      </c>
+      <c r="G104">
+        <v>0.03826997078169076</v>
       </c>
     </row>
   </sheetData>
